--- a/biology/Histoire de la zoologie et de la botanique/Karl_Friedrich_Reiche/Karl_Friedrich_Reiche.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Friedrich_Reiche/Karl_Friedrich_Reiche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Friedrich Reiche (ou Carlos Federico Reiche) est un botaniste saxon, né le 31 octobre 1860 à Dresde et mort le 26 février 1929 à Munich.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Friedrich Reiche obtient son doctorat en 1885 à Leipzig. Il est correspondant de la Deutschen Botanischen Gesellschaft (Société botanique allemande). Il enseigne dans les universités du Chili et du Mexique. Il est un collaborateur bénévole du Jardin botanique de l'Université de Munich (Botanische Staatssammlung Botanischer Garten München-Nymphenburg) de Munich.
 Les genres Reichea (aujourd’hui Myrcianthes (en)) de la famille des Myrtaceae, Reichenecactus de la famille des Cactaceae et Reicheella (en) de la famille des Caryophyllaceae lui ont été dédiés. 
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beiträge zur Kenntnis der chilenischen Buchen. In: Verhandlungen des Deutschen Wissenschaftlichen Vereins Santiago. Band III. Valparaiso, G. Helfmann, 1897.
 Jeografía botánica del Rio Manso. Anales de la Universidad Santiago, Impr. Cervantes, 1898.
